--- a/DCPS-SY20-21-Enrollment-Audit.xlsx
+++ b/DCPS-SY20-21-Enrollment-Audit.xlsx
@@ -56,9 +56,6 @@
     <t>Amidon-Bowen Elementary School</t>
   </si>
   <si>
-    <t>Bancroft Elementary School @ Sharpe</t>
-  </si>
-  <si>
     <t>Barnard Elementary School</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Brightwood Education Campus</t>
   </si>
   <si>
-    <t>Bruce-Monroe Elementary School @ Park View</t>
-  </si>
-  <si>
     <t>Bunker Hill Elementary School</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>Houston Elementary School</t>
   </si>
   <si>
-    <t>Hyde-Addison Elementary School @ Meyer</t>
-  </si>
-  <si>
     <t>J.O. Wilson Elementary School</t>
   </si>
   <si>
@@ -128,9 +119,6 @@
     <t>Key Elementary School</t>
   </si>
   <si>
-    <t>Kimball Elementary School @ Davis</t>
-  </si>
-  <si>
     <t>King Elementary School</t>
   </si>
   <si>
@@ -149,9 +137,6 @@
     <t>Ludlow-Taylor Elementary School</t>
   </si>
   <si>
-    <t>Malcolm X Elementary School @ Green</t>
-  </si>
-  <si>
     <t>Mann Elementary School</t>
   </si>
   <si>
@@ -167,9 +152,6 @@
     <t>Moten Elementary School</t>
   </si>
   <si>
-    <t>Murch Elementary School @ UDC</t>
-  </si>
-  <si>
     <t>Nalle Elementary School</t>
   </si>
   <si>
@@ -203,9 +185,6 @@
     <t>Savoy Elementary School</t>
   </si>
   <si>
-    <t>School-Within-School @ Goding</t>
-  </si>
-  <si>
     <t>Seaton Elementary School</t>
   </si>
   <si>
@@ -248,10 +227,31 @@
     <t>Van Ness Elementary School</t>
   </si>
   <si>
-    <t>Watkins Elementary School (Capitol Hill Cluster)</t>
-  </si>
-  <si>
     <t>West Education Campus</t>
+  </si>
+  <si>
+    <t>Bancroft Elementary School</t>
+  </si>
+  <si>
+    <t>Bruce-Monroe Elementary School</t>
+  </si>
+  <si>
+    <t>Hyde-Addison Elementary School</t>
+  </si>
+  <si>
+    <t>Kimball Elementary School</t>
+  </si>
+  <si>
+    <t>Malcolm X Elementary School</t>
+  </si>
+  <si>
+    <t>Murch Elementary School</t>
+  </si>
+  <si>
+    <t>School-Within-School</t>
+  </si>
+  <si>
+    <t>Watkins Elementary School</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +736,7 @@
         <v>204</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3">
         <v>627</v>
@@ -747,7 +747,7 @@
         <v>205</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>617</v>
@@ -758,7 +758,7 @@
         <v>206</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>456</v>
@@ -769,7 +769,7 @@
         <v>212</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
         <v>433</v>
@@ -780,7 +780,7 @@
         <v>213</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
         <v>633</v>
@@ -791,7 +791,7 @@
         <v>296</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3">
         <v>469</v>
@@ -802,7 +802,7 @@
         <v>219</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3">
         <v>209</v>
@@ -813,7 +813,7 @@
         <v>220</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3">
         <v>267</v>
@@ -824,7 +824,7 @@
         <v>221</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3">
         <v>270</v>
@@ -835,7 +835,7 @@
         <v>224</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3">
         <v>297</v>
@@ -846,7 +846,7 @@
         <v>349</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3">
         <v>437</v>
@@ -857,7 +857,7 @@
         <v>231</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3">
         <v>223</v>
@@ -868,7 +868,7 @@
         <v>232</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3">
         <v>429</v>
@@ -879,7 +879,7 @@
         <v>238</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3">
         <v>263</v>
@@ -890,7 +890,7 @@
         <v>239</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3">
         <v>319</v>
@@ -901,7 +901,7 @@
         <v>227</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3">
         <v>383</v>
@@ -912,7 +912,7 @@
         <v>258</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3">
         <v>346</v>
@@ -923,7 +923,7 @@
         <v>249</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3">
         <v>307</v>
@@ -934,7 +934,7 @@
         <v>251</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3">
         <v>269</v>
@@ -945,7 +945,7 @@
         <v>252</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3">
         <v>386</v>
@@ -956,7 +956,7 @@
         <v>339</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3">
         <v>447</v>
@@ -967,7 +967,7 @@
         <v>254</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3">
         <v>681</v>
@@ -978,7 +978,7 @@
         <v>257</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3">
         <v>329</v>
@@ -989,7 +989,7 @@
         <v>272</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3">
         <v>346</v>
@@ -1000,7 +1000,7 @@
         <v>259</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3">
         <v>373</v>
@@ -1011,7 +1011,7 @@
         <v>344</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3">
         <v>271</v>
@@ -1022,7 +1022,7 @@
         <v>261</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3">
         <v>902</v>
@@ -1033,7 +1033,7 @@
         <v>262</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C32" s="3">
         <v>358</v>
@@ -1044,7 +1044,7 @@
         <v>370</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3">
         <v>315</v>
@@ -1055,7 +1055,7 @@
         <v>264</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3">
         <v>286</v>
@@ -1066,7 +1066,7 @@
         <v>271</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C35" s="3">
         <v>437</v>
@@ -1077,7 +1077,7 @@
         <v>308</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C36" s="3">
         <v>216</v>
@@ -1088,7 +1088,7 @@
         <v>273</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3">
         <v>394</v>
@@ -1099,7 +1099,7 @@
         <v>284</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C38" s="3">
         <v>457</v>
@@ -1110,7 +1110,7 @@
         <v>274</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C39" s="3">
         <v>492</v>
@@ -1121,7 +1121,7 @@
         <v>280</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C40" s="3">
         <v>399</v>
@@ -1132,7 +1132,7 @@
         <v>285</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C41" s="3">
         <v>240</v>
@@ -1143,7 +1143,7 @@
         <v>287</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C42" s="3">
         <v>597</v>
@@ -1154,7 +1154,7 @@
         <v>288</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C43" s="3">
         <v>313</v>
@@ -1165,7 +1165,7 @@
         <v>290</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C44" s="3">
         <v>213</v>
@@ -1176,7 +1176,7 @@
         <v>291</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C45" s="3">
         <v>435</v>
@@ -1187,7 +1187,7 @@
         <v>294</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C46" s="3">
         <v>313</v>
@@ -1198,7 +1198,7 @@
         <v>295</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C47" s="3">
         <v>319</v>
@@ -1209,7 +1209,7 @@
         <v>299</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C48" s="3">
         <v>253</v>
@@ -1220,7 +1220,7 @@
         <v>300</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C49" s="3">
         <v>517</v>
@@ -1231,7 +1231,7 @@
         <v>316</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C50" s="3">
         <v>318</v>
@@ -1242,7 +1242,7 @@
         <v>302</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C51" s="3">
         <v>451</v>
@@ -1253,7 +1253,7 @@
         <v>305</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C52" s="3">
         <v>176</v>
@@ -1264,7 +1264,7 @@
         <v>307</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C53" s="3">
         <v>264</v>
@@ -1275,7 +1275,7 @@
         <v>943</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C54" s="3">
         <v>315</v>
@@ -1286,7 +1286,7 @@
         <v>309</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C55" s="3">
         <v>367</v>
@@ -1297,7 +1297,7 @@
         <v>313</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C56" s="3">
         <v>372</v>
@@ -1308,7 +1308,7 @@
         <v>315</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C57" s="3">
         <v>234</v>
@@ -1319,7 +1319,7 @@
         <v>322</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C58" s="3">
         <v>210</v>
@@ -1330,7 +1330,7 @@
         <v>319</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C59" s="3">
         <v>383</v>
@@ -1341,7 +1341,7 @@
         <v>321</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C60" s="3">
         <v>428</v>
@@ -1352,7 +1352,7 @@
         <v>324</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3">
         <v>477</v>
@@ -1363,7 +1363,7 @@
         <v>325</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C62" s="3">
         <v>310</v>
@@ -1374,7 +1374,7 @@
         <v>326</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C63" s="3">
         <v>297</v>
@@ -1385,7 +1385,7 @@
         <v>327</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C64" s="3">
         <v>470</v>
@@ -1396,7 +1396,7 @@
         <v>328</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C65" s="3">
         <v>531</v>
@@ -1407,7 +1407,7 @@
         <v>329</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C66" s="3">
         <v>497</v>
@@ -1418,7 +1418,7 @@
         <v>330</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C67" s="3">
         <v>529</v>
@@ -1429,7 +1429,7 @@
         <v>331</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C68" s="3">
         <v>369</v>
@@ -1440,7 +1440,7 @@
         <v>333</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69" s="3">
         <v>438</v>
@@ -1451,7 +1451,7 @@
         <v>336</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C70" s="3">
         <v>317</v>
